--- a/data/stat probs/robert williams iii stat probs - condition.xlsx
+++ b/data/stat probs/robert williams iii stat probs - condition.xlsx
@@ -18,7 +18,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="away 2023 full" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tor 2023 regular" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tor 2023 full" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="226 before 2023 regular" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="228 before 2023 regular" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 postseason" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="15" state="visible" r:id="rId15"/>
@@ -33,11 +33,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 full" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 full" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 postseason" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 postseason" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 regular" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 full" sheetId="31" state="visible" r:id="rId31"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ind 2023 regular" sheetId="32" state="visible" r:id="rId32"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ind 2023 full" sheetId="33" state="visible" r:id="rId33"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="34" state="visible" r:id="rId34"/>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1193,22 +1193,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2351,22 +2351,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2961,22 +2961,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3539,22 +3539,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4149,22 +4149,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4759,22 +4759,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5337,22 +5337,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5947,22 +5947,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6557,22 +6557,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7135,22 +7135,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7745,22 +7745,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8067,22 +8067,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8389,22 +8389,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8871,22 +8871,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9359,16 +9359,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9585,16 +9585,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9742,7 +9742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9805,22 +9805,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9837,10 +9837,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -9849,10 +9849,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -9869,10 +9869,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -9881,10 +9881,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -9901,10 +9901,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
@@ -9913,10 +9913,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -9933,10 +9933,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
@@ -9965,16 +9965,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -9997,16 +9997,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -10029,16 +10029,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -10061,16 +10061,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -10093,16 +10093,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -10125,16 +10125,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -10157,16 +10157,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -10178,6 +10178,134 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" t="n">
+        <v>80</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>100</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="n">
+        <v>80</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>100</v>
+      </c>
+      <c r="E16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" t="n">
+        <v>80</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" t="n">
+        <v>80</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10192,7 +10320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10255,22 +10383,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -10325,16 +10453,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -10357,16 +10485,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -10389,10 +10517,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -10415,16 +10543,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -10447,16 +10575,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -10479,16 +10607,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -10511,16 +10639,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -10543,16 +10671,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -10575,16 +10703,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -10596,38 +10724,6 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D13" t="n">
-        <v>50</v>
-      </c>
-      <c r="E13" t="n">
-        <v>50</v>
-      </c>
-      <c r="F13" t="n">
-        <v>50</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10642,7 +10738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10705,22 +10801,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -10737,10 +10833,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -10749,10 +10845,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H3" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -10769,22 +10865,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -10801,22 +10897,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -10833,16 +10929,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -10865,16 +10961,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -10897,16 +10993,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -10929,16 +11025,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -10961,16 +11057,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E10" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -10993,16 +11089,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -11025,16 +11121,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -11057,16 +11153,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -11095,10 +11191,10 @@
         <v>100</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -11127,10 +11223,10 @@
         <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -11159,10 +11255,10 @@
         <v>100</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -11191,10 +11287,10 @@
         <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -11206,38 +11302,6 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" t="n">
-        <v>20</v>
-      </c>
-      <c r="F18" t="n">
-        <v>80</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
         <v>100</v>
       </c>
     </row>
@@ -11315,22 +11379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11862,7 +11926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11925,22 +11989,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11969,10 +12033,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -12001,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -12027,16 +12091,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -12059,10 +12123,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -12085,16 +12149,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -12117,16 +12181,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -12149,16 +12213,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -12181,16 +12245,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -12213,16 +12277,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -12245,16 +12309,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -12277,16 +12341,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -12298,134 +12362,6 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25</v>
-      </c>
-      <c r="D14" t="n">
-        <v>75</v>
-      </c>
-      <c r="E14" t="n">
-        <v>25</v>
-      </c>
-      <c r="F14" t="n">
-        <v>75</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" t="n">
-        <v>75</v>
-      </c>
-      <c r="E15" t="n">
-        <v>25</v>
-      </c>
-      <c r="F15" t="n">
-        <v>75</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" t="n">
-        <v>25</v>
-      </c>
-      <c r="F16" t="n">
-        <v>75</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" t="n">
-        <v>25</v>
-      </c>
-      <c r="F17" t="n">
-        <v>75</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -12440,7 +12376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12503,22 +12439,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12547,10 +12483,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -12579,10 +12515,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -12605,16 +12541,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -12637,10 +12573,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -12663,16 +12599,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -12695,16 +12631,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -12727,16 +12663,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -12759,16 +12695,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -12791,16 +12727,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -12823,16 +12759,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -12855,16 +12791,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -12876,166 +12812,6 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>11</v>
-      </c>
-      <c r="D14" t="n">
-        <v>89</v>
-      </c>
-      <c r="E14" t="n">
-        <v>22</v>
-      </c>
-      <c r="F14" t="n">
-        <v>78</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>11</v>
-      </c>
-      <c r="D15" t="n">
-        <v>89</v>
-      </c>
-      <c r="E15" t="n">
-        <v>22</v>
-      </c>
-      <c r="F15" t="n">
-        <v>78</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" t="n">
-        <v>22</v>
-      </c>
-      <c r="F16" t="n">
-        <v>78</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" t="n">
-        <v>22</v>
-      </c>
-      <c r="F17" t="n">
-        <v>78</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" t="n">
-        <v>11</v>
-      </c>
-      <c r="F18" t="n">
-        <v>89</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
         <v>100</v>
       </c>
     </row>
@@ -13113,22 +12889,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13595,22 +13371,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14077,22 +13853,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14655,22 +14431,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15201,22 +14977,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15779,16 +15555,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -16101,16 +15877,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -16423,22 +16199,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16905,22 +16681,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17515,22 +17291,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17997,22 +17773,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18479,16 +18255,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -18801,16 +18577,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -19123,22 +18899,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -19733,22 +19509,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20343,16 +20119,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20633,16 +20409,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20923,22 +20699,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21373,22 +21149,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21823,22 +21599,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22369,22 +22145,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22851,22 +22627,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23333,22 +23109,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23879,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24297,22 +24073,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24843,22 +24619,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25197,22 +24973,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25551,16 +25327,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25841,16 +25617,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26131,22 +25907,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26741,22 +26517,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27351,22 +27127,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27961,22 +27737,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28571,22 +28347,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29181,22 +28957,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29791,16 +29567,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -30113,22 +29889,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30723,22 +30499,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -31301,22 +31077,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -31879,22 +31655,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -32457,16 +32233,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -32747,22 +32523,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -33325,22 +33101,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -33903,22 +33679,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -34225,22 +34001,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -34547,16 +34323,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -34997,22 +34773,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -35543,22 +35319,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -36089,22 +35865,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -36635,22 +36411,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -37181,22 +36957,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -37503,22 +37279,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -37825,22 +37601,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -38403,16 +38179,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -38725,16 +38501,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -39047,22 +38823,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -39401,22 +39177,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -39755,22 +39531,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -40237,22 +40013,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -40719,22 +40495,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -41297,22 +41073,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -41875,22 +41651,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -42261,22 +42037,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -42647,22 +42423,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -43225,22 +43001,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -43579,22 +43355,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -43933,22 +43709,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -44511,22 +44287,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -45089,22 +44865,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -45571,22 +45347,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -46053,22 +45829,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
